--- a/ledstrip-prices.xlsx
+++ b/ledstrip-prices.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steven\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steven\Desktop\pixel-props\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -67,7 +67,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="174" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -110,7 +110,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -395,7 +395,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
